--- a/input_metrics_data/hockey_vlad_metrics_workaround.xlsx
+++ b/input_metrics_data/hockey_vlad_metrics_workaround.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LinkAI - nystart - 2026\Agentic AI platform\Hockey\integration\TPL metrics\input_metrics_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LinkAI - nystart - 2026\Agentic AI platform\Hockey\integration\TPL metrics\tobii_pro_lab_rawFilter_metrics_aois_aggregation\input_metrics_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62F224-21DE-4552-89D7-EDB3BB0431C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93510399-A75F-4A41-BFE9-96B1A8CC5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1ECFDEB-00C6-4A84-8BE5-4DE4B8253800}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="24">
   <si>
     <t>Recording</t>
   </si>
@@ -119,15 +119,6 @@
   </si>
   <si>
     <t>TeammateWithPuckStickArea</t>
-  </si>
-  <si>
-    <t>Tot dur fix SpaceIce</t>
-  </si>
-  <si>
-    <t>Fixation order nr</t>
-  </si>
-  <si>
-    <t>Tot dur fix Puck</t>
   </si>
 </sst>
 </file>
@@ -563,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79545C89-07B9-40B4-A148-60EBFC8D0F90}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +578,7 @@
     <col min="14" max="14" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,17 +615,8 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -671,19 +653,8 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2">
-        <f>COUNTIF(TheProblemChild_Metrics[AOI], "SpaceIce")*20</f>
-        <v>380</v>
-      </c>
-      <c r="N2">
-        <f>COUNTIF(TheProblemChild_Metrics[AOI], "Puck")*20</f>
-        <v>160</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -720,11 +691,8 @@
       <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -761,11 +729,8 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -802,11 +767,8 @@
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -843,11 +805,8 @@
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -884,11 +843,8 @@
       <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -925,11 +881,8 @@
       <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -966,11 +919,8 @@
       <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1007,11 +957,8 @@
       <c r="L10" t="s">
         <v>19</v>
       </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1048,11 +995,8 @@
       <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1089,11 +1033,8 @@
       <c r="L12" t="s">
         <v>19</v>
       </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1130,11 +1071,8 @@
       <c r="L13" t="s">
         <v>19</v>
       </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1171,11 +1109,8 @@
       <c r="L14" t="s">
         <v>19</v>
       </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1212,11 +1147,8 @@
       <c r="L15" t="s">
         <v>19</v>
       </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1253,11 +1185,8 @@
       <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1294,11 +1223,8 @@
       <c r="L17" t="s">
         <v>19</v>
       </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1335,11 +1261,8 @@
       <c r="L18" t="s">
         <v>19</v>
       </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1376,11 +1299,8 @@
       <c r="L19" t="s">
         <v>19</v>
       </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1417,11 +1337,8 @@
       <c r="L20" t="s">
         <v>19</v>
       </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1458,11 +1375,8 @@
       <c r="L21" t="s">
         <v>18</v>
       </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1499,11 +1413,8 @@
       <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1540,11 +1451,8 @@
       <c r="L23" t="s">
         <v>18</v>
       </c>
-      <c r="P23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1581,11 +1489,8 @@
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="P24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1622,11 +1527,8 @@
       <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="P25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1663,11 +1565,8 @@
       <c r="L26" t="s">
         <v>20</v>
       </c>
-      <c r="P26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1704,11 +1603,8 @@
       <c r="L27" t="s">
         <v>20</v>
       </c>
-      <c r="P27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1745,11 +1641,8 @@
       <c r="L28" t="s">
         <v>20</v>
       </c>
-      <c r="P28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1786,11 +1679,8 @@
       <c r="L29" t="s">
         <v>20</v>
       </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1827,11 +1717,8 @@
       <c r="L30" t="s">
         <v>20</v>
       </c>
-      <c r="P30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1868,11 +1755,8 @@
       <c r="L31" t="s">
         <v>20</v>
       </c>
-      <c r="P31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1909,11 +1793,8 @@
       <c r="L32" t="s">
         <v>20</v>
       </c>
-      <c r="P32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1950,11 +1831,8 @@
       <c r="L33" t="s">
         <v>21</v>
       </c>
-      <c r="P33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1991,11 +1869,8 @@
       <c r="L34" t="s">
         <v>21</v>
       </c>
-      <c r="P34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2032,11 +1907,8 @@
       <c r="L35" t="s">
         <v>21</v>
       </c>
-      <c r="P35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2073,11 +1945,8 @@
       <c r="L36" t="s">
         <v>21</v>
       </c>
-      <c r="P36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2114,11 +1983,8 @@
       <c r="L37" t="s">
         <v>21</v>
       </c>
-      <c r="P37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2155,11 +2021,8 @@
       <c r="L38" t="s">
         <v>21</v>
       </c>
-      <c r="P38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2235,7 +2098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2273,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2311,7 +2174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2463,7 +2326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>

--- a/input_metrics_data/hockey_vlad_metrics_workaround.xlsx
+++ b/input_metrics_data/hockey_vlad_metrics_workaround.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LinkAI - nystart - 2026\Agentic AI platform\Hockey\integration\TPL metrics\tobii_pro_lab_rawFilter_metrics_aois_aggregation\input_metrics_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yl1874\Integration_and_development\non-tobii\tobii_pro_lab_rawFilter_gaze_aois_aggregation\input_metrics_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93510399-A75F-4A41-BFE9-96B1A8CC5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FE309-F67E-40C1-8CDE-9CB69BD21683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1ECFDEB-00C6-4A84-8BE5-4DE4B8253800}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D1ECFDEB-00C6-4A84-8BE5-4DE4B8253800}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPL_rawFilter_metrics" sheetId="2" r:id="rId1"/>
+    <sheet name="TPL_raw" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">TPL_rawFilter_metrics!$A$1:$L$65</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">TPL_raw!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -560,25 +560,25 @@
       <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -654,7 +654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -730,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -768,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -844,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -920,7 +920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -958,7 +958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -996,7 +996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
